--- a/src/data/raw/SONATSOFTW.NS_data.xlsx
+++ b/src/data/raw/SONATSOFTW.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>282.8892517089844</v>
+        <v>282.8892211914062</v>
       </c>
       <c r="C2" t="n">
-        <v>287.6424636487691</v>
+        <v>287.6424326184231</v>
       </c>
       <c r="D2" t="n">
-        <v>279.312102691309</v>
+        <v>279.3120725596272</v>
       </c>
       <c r="E2" t="n">
-        <v>284.2123150192267</v>
+        <v>284.2122843589189</v>
       </c>
       <c r="F2" t="n">
         <v>233924</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>286.5154113769531</v>
+        <v>286.515380859375</v>
       </c>
       <c r="C4" t="n">
-        <v>288.0344651852655</v>
+        <v>288.0344345058886</v>
       </c>
       <c r="D4" t="n">
-        <v>280.3166310224894</v>
+        <v>280.3166011651612</v>
       </c>
       <c r="E4" t="n">
-        <v>284.5553265102163</v>
+        <v>284.5552962014125</v>
       </c>
       <c r="F4" t="n">
         <v>292120</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>287.9119873046875</v>
+        <v>287.9119567871094</v>
       </c>
       <c r="C5" t="n">
-        <v>290.0190727554249</v>
+        <v>290.0190420145038</v>
       </c>
       <c r="D5" t="n">
-        <v>284.5553536140903</v>
+        <v>284.5553234523026</v>
       </c>
       <c r="E5" t="n">
-        <v>286.1724178014691</v>
+        <v>286.1723874682787</v>
       </c>
       <c r="F5" t="n">
         <v>363664</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>285.6578979492188</v>
+        <v>285.6578674316406</v>
       </c>
       <c r="C6" t="n">
-        <v>291.0236366988183</v>
+        <v>291.0236056080043</v>
       </c>
       <c r="D6" t="n">
-        <v>284.2123292583551</v>
+        <v>284.2122988952108</v>
       </c>
       <c r="E6" t="n">
-        <v>289.0880467506126</v>
+        <v>289.0880158665828</v>
       </c>
       <c r="F6" t="n">
         <v>279806</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>284.4818115234375</v>
+        <v>284.4817810058594</v>
       </c>
       <c r="C8" t="n">
-        <v>287.2504433626605</v>
+        <v>287.2504125480795</v>
       </c>
       <c r="D8" t="n">
-        <v>283.2567584810417</v>
+        <v>283.2567280948803</v>
       </c>
       <c r="E8" t="n">
-        <v>285.6823694866897</v>
+        <v>285.6823388403225</v>
       </c>
       <c r="F8" t="n">
         <v>98954</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>286.5889282226562</v>
+        <v>286.5888977050781</v>
       </c>
       <c r="C10" t="n">
-        <v>289.5290558470324</v>
+        <v>289.5290250163732</v>
       </c>
       <c r="D10" t="n">
-        <v>280.0471562218292</v>
+        <v>280.0471264008553</v>
       </c>
       <c r="E10" t="n">
-        <v>284.2123370230288</v>
+        <v>284.2123067585233</v>
       </c>
       <c r="F10" t="n">
         <v>143662</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>284.3838195800781</v>
+        <v>284.3837890625</v>
       </c>
       <c r="C11" t="n">
-        <v>288.6225153426624</v>
+        <v>288.6224843702246</v>
       </c>
       <c r="D11" t="n">
-        <v>283.9428184015786</v>
+        <v>283.9427879313249</v>
       </c>
       <c r="E11" t="n">
-        <v>287.6424728457434</v>
+        <v>287.6424419784752</v>
       </c>
       <c r="F11" t="n">
         <v>87910</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>283.8202819824219</v>
+        <v>283.8203125</v>
       </c>
       <c r="C12" t="n">
-        <v>286.3683981768395</v>
+        <v>286.368428968402</v>
       </c>
       <c r="D12" t="n">
-        <v>282.6932392161949</v>
+        <v>282.6932696125885</v>
       </c>
       <c r="E12" t="n">
-        <v>284.3837884112752</v>
+        <v>284.383818989444</v>
       </c>
       <c r="F12" t="n">
         <v>95930</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>285.7313537597656</v>
+        <v>285.7313842773438</v>
       </c>
       <c r="C13" t="n">
-        <v>286.6624060162181</v>
+        <v>286.6624366332374</v>
       </c>
       <c r="D13" t="n">
-        <v>282.4972257578628</v>
+        <v>282.4972559300194</v>
       </c>
       <c r="E13" t="n">
-        <v>283.8202889981034</v>
+        <v>283.82031931157</v>
       </c>
       <c r="F13" t="n">
         <v>92000</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>296.4138793945312</v>
+        <v>296.4138488769531</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6952209461694</v>
+        <v>304.6951895759777</v>
       </c>
       <c r="D20" t="n">
-        <v>291.5626568383488</v>
+        <v>291.5626268202329</v>
       </c>
       <c r="E20" t="n">
-        <v>295.4338368505368</v>
+        <v>295.4338064338599</v>
       </c>
       <c r="F20" t="n">
         <v>344080</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>297.4429016113281</v>
+        <v>297.44287109375</v>
       </c>
       <c r="C21" t="n">
-        <v>300.7505450806468</v>
+        <v>300.7505142237052</v>
       </c>
       <c r="D21" t="n">
-        <v>293.4247213409695</v>
+        <v>293.4246912356558</v>
       </c>
       <c r="E21" t="n">
-        <v>297.2959012166187</v>
+        <v>297.2958707141228</v>
       </c>
       <c r="F21" t="n">
         <v>290920</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>300.6279907226562</v>
+        <v>300.6280517578125</v>
       </c>
       <c r="C25" t="n">
-        <v>304.6461703374909</v>
+        <v>304.6462321884402</v>
       </c>
       <c r="D25" t="n">
-        <v>297.9083791843751</v>
+        <v>297.9084396673808</v>
       </c>
       <c r="E25" t="n">
-        <v>302.6860856384027</v>
+        <v>302.6861470914047</v>
       </c>
       <c r="F25" t="n">
         <v>217274</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>322.2624816894531</v>
+        <v>322.262451171875</v>
       </c>
       <c r="C30" t="n">
-        <v>333.704465724072</v>
+        <v>333.704434122962</v>
       </c>
       <c r="D30" t="n">
-        <v>311.1634885973358</v>
+        <v>311.1634591308089</v>
       </c>
       <c r="E30" t="n">
-        <v>333.704465724072</v>
+        <v>333.704434122962</v>
       </c>
       <c r="F30" t="n">
         <v>513088</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>320.743408203125</v>
+        <v>320.7433776855469</v>
       </c>
       <c r="C31" t="n">
-        <v>326.8441788423825</v>
+        <v>326.844147744338</v>
       </c>
       <c r="D31" t="n">
-        <v>318.5138174625916</v>
+        <v>318.5137871571511</v>
       </c>
       <c r="E31" t="n">
-        <v>325.3741150694783</v>
+        <v>325.3740841113051</v>
       </c>
       <c r="F31" t="n">
         <v>503224</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>323.5119934082031</v>
+        <v>323.5120239257812</v>
       </c>
       <c r="C32" t="n">
-        <v>325.7660789033865</v>
+        <v>325.7661096335972</v>
       </c>
       <c r="D32" t="n">
-        <v>318.6117815417006</v>
+        <v>318.6118115970312</v>
       </c>
       <c r="E32" t="n">
-        <v>320.7678568178499</v>
+        <v>320.7678870765677</v>
       </c>
       <c r="F32" t="n">
         <v>194246</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>333.2144470214844</v>
+        <v>333.2144165039062</v>
       </c>
       <c r="C34" t="n">
-        <v>337.6246382320629</v>
+        <v>337.6246073105756</v>
       </c>
       <c r="D34" t="n">
-        <v>327.1136765318128</v>
+        <v>327.1136465729762</v>
       </c>
       <c r="E34" t="n">
-        <v>329.2942770565257</v>
+        <v>329.2942468979779</v>
       </c>
       <c r="F34" t="n">
         <v>300782</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>360.5820922851562</v>
+        <v>360.5821228027344</v>
       </c>
       <c r="C35" t="n">
-        <v>368.9859679271171</v>
+        <v>368.9859991559506</v>
       </c>
       <c r="D35" t="n">
-        <v>334.2924725419688</v>
+        <v>334.2925008345459</v>
       </c>
       <c r="E35" t="n">
-        <v>335.6400308577718</v>
+        <v>335.6400592643984</v>
       </c>
       <c r="F35" t="n">
         <v>8687692</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>354.1873168945312</v>
+        <v>354.1873474121094</v>
       </c>
       <c r="C36" t="n">
-        <v>360.900613307066</v>
+        <v>360.9006444030769</v>
       </c>
       <c r="D36" t="n">
-        <v>350.9286938640943</v>
+        <v>350.9287241009021</v>
       </c>
       <c r="E36" t="n">
-        <v>356.735433112755</v>
+        <v>356.7354638498846</v>
       </c>
       <c r="F36" t="n">
         <v>1216968</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>345.9549560546875</v>
+        <v>345.9549865722656</v>
       </c>
       <c r="C39" t="n">
-        <v>364.9187818654515</v>
+        <v>364.9188140558775</v>
       </c>
       <c r="D39" t="n">
-        <v>341.4712502557267</v>
+        <v>341.4712803777856</v>
       </c>
       <c r="E39" t="n">
-        <v>357.71546447581</v>
+        <v>357.7154960308129</v>
       </c>
       <c r="F39" t="n">
         <v>1403968</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>389.1748657226562</v>
+        <v>389.1748352050781</v>
       </c>
       <c r="C44" t="n">
-        <v>394.9326151585115</v>
+        <v>394.932584189433</v>
       </c>
       <c r="D44" t="n">
-        <v>383.1966007522341</v>
+        <v>383.1965707034482</v>
       </c>
       <c r="E44" t="n">
-        <v>392.8500249370319</v>
+        <v>392.8499941312621</v>
       </c>
       <c r="F44" t="n">
         <v>1461452</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>403.5569763183594</v>
+        <v>403.5569458007812</v>
       </c>
       <c r="C45" t="n">
-        <v>408.016187438059</v>
+        <v>408.0161565832688</v>
       </c>
       <c r="D45" t="n">
-        <v>392.0659725406055</v>
+        <v>392.0659428919942</v>
       </c>
       <c r="E45" t="n">
-        <v>392.7520142231815</v>
+        <v>392.7519845226907</v>
       </c>
       <c r="F45" t="n">
         <v>1624532</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>382.363525390625</v>
+        <v>382.3635864257812</v>
       </c>
       <c r="C48" t="n">
-        <v>396.6721500011537</v>
+        <v>396.6722133203384</v>
       </c>
       <c r="D48" t="n">
-        <v>379.7664190869601</v>
+        <v>379.7664797075506</v>
       </c>
       <c r="E48" t="n">
-        <v>396.4271394081944</v>
+        <v>396.427202688269</v>
       </c>
       <c r="F48" t="n">
         <v>784914</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>391.7474975585938</v>
+        <v>391.7474670410156</v>
       </c>
       <c r="C49" t="n">
-        <v>396.9172158074678</v>
+        <v>396.9171848871626</v>
       </c>
       <c r="D49" t="n">
-        <v>368.4959830706367</v>
+        <v>368.4959543643782</v>
       </c>
       <c r="E49" t="n">
-        <v>372.4161531033031</v>
+        <v>372.4161240916588</v>
       </c>
       <c r="F49" t="n">
         <v>2048156</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>405.1495666503906</v>
+        <v>405.1495361328125</v>
       </c>
       <c r="C51" t="n">
-        <v>419.2621727777864</v>
+        <v>419.2621411971871</v>
       </c>
       <c r="D51" t="n">
-        <v>394.4671092995123</v>
+        <v>394.467079586582</v>
       </c>
       <c r="E51" t="n">
-        <v>408.9717264482339</v>
+        <v>408.9716956427546</v>
       </c>
       <c r="F51" t="n">
         <v>4121762</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>391.5269775390625</v>
+        <v>391.5269470214844</v>
       </c>
       <c r="C53" t="n">
-        <v>404.9535717109454</v>
+        <v>404.9535401468311</v>
       </c>
       <c r="D53" t="n">
-        <v>388.0723337189519</v>
+        <v>388.0723034706461</v>
       </c>
       <c r="E53" t="n">
-        <v>398.9753064977306</v>
+        <v>398.9752753995923</v>
       </c>
       <c r="F53" t="n">
         <v>920470</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>394.9081420898438</v>
+        <v>394.9081115722656</v>
       </c>
       <c r="C56" t="n">
-        <v>414.0679612319604</v>
+        <v>414.0679292337562</v>
       </c>
       <c r="D56" t="n">
-        <v>392.0414997977389</v>
+        <v>392.0414695016882</v>
       </c>
       <c r="E56" t="n">
-        <v>404.75755736994</v>
+        <v>404.7575260912221</v>
       </c>
       <c r="F56" t="n">
         <v>3202124</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>404.4144897460938</v>
+        <v>404.4145202636719</v>
       </c>
       <c r="C57" t="n">
-        <v>406.6195851426467</v>
+        <v>406.6196158266238</v>
       </c>
       <c r="D57" t="n">
-        <v>392.3599802083462</v>
+        <v>392.3600098162773</v>
       </c>
       <c r="E57" t="n">
-        <v>394.9570865825822</v>
+        <v>394.9571163864939</v>
       </c>
       <c r="F57" t="n">
         <v>1575914</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>380.011474609375</v>
+        <v>380.0114440917969</v>
       </c>
       <c r="C59" t="n">
-        <v>405.4435891288469</v>
+        <v>405.4435565688922</v>
       </c>
       <c r="D59" t="n">
-        <v>377.2673676071976</v>
+        <v>377.2673373099904</v>
       </c>
       <c r="E59" t="n">
-        <v>405.4435891288469</v>
+        <v>405.4435565688922</v>
       </c>
       <c r="F59" t="n">
         <v>839838</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>368.3244934082031</v>
+        <v>368.324462890625</v>
       </c>
       <c r="C61" t="n">
-        <v>375.2582763178</v>
+        <v>375.2582452257222</v>
       </c>
       <c r="D61" t="n">
-        <v>361.6356912209906</v>
+        <v>361.6356612576141</v>
       </c>
       <c r="E61" t="n">
-        <v>373.8372326036451</v>
+        <v>373.8372016293081</v>
       </c>
       <c r="F61" t="n">
         <v>1451498</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>420.9282531738281</v>
+        <v>420.92822265625</v>
       </c>
       <c r="C63" t="n">
-        <v>436.0699217415115</v>
+        <v>436.0698901261523</v>
       </c>
       <c r="D63" t="n">
-        <v>410.6867970994373</v>
+        <v>410.6867673243716</v>
       </c>
       <c r="E63" t="n">
-        <v>414.0679556832186</v>
+        <v>414.0679256630166</v>
       </c>
       <c r="F63" t="n">
         <v>9889044</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>412.2548217773438</v>
+        <v>412.2548522949219</v>
       </c>
       <c r="C64" t="n">
-        <v>420.9282028349245</v>
+        <v>420.9282339945584</v>
       </c>
       <c r="D64" t="n">
-        <v>403.2874399687345</v>
+        <v>403.2874698224931</v>
       </c>
       <c r="E64" t="n">
-        <v>420.9282028349245</v>
+        <v>420.9282339945584</v>
       </c>
       <c r="F64" t="n">
         <v>2411186</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>424.162353515625</v>
+        <v>424.1623840332031</v>
       </c>
       <c r="C65" t="n">
-        <v>427.2985012681577</v>
+        <v>427.298532011375</v>
       </c>
       <c r="D65" t="n">
-        <v>407.0851260648188</v>
+        <v>407.0851553537268</v>
       </c>
       <c r="E65" t="n">
-        <v>414.0679284077904</v>
+        <v>414.0679581990962</v>
       </c>
       <c r="F65" t="n">
         <v>2379092</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>421.4427490234375</v>
+        <v>421.4427185058594</v>
       </c>
       <c r="C66" t="n">
-        <v>433.5217841958188</v>
+        <v>433.5217528035716</v>
       </c>
       <c r="D66" t="n">
-        <v>417.5960943665448</v>
+        <v>417.5960641275112</v>
       </c>
       <c r="E66" t="n">
-        <v>424.1623608433476</v>
+        <v>424.1623301288365</v>
       </c>
       <c r="F66" t="n">
         <v>1998506</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>439.2305297851562</v>
+        <v>439.2304992675781</v>
       </c>
       <c r="C67" t="n">
-        <v>442.4646879383814</v>
+        <v>442.4646571960952</v>
       </c>
       <c r="D67" t="n">
-        <v>421.9327858659021</v>
+        <v>421.932756550165</v>
       </c>
       <c r="E67" t="n">
-        <v>422.8883332727306</v>
+        <v>422.8883038906023</v>
       </c>
       <c r="F67" t="n">
         <v>3361042</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>404.4635314941406</v>
+        <v>404.4635009765625</v>
       </c>
       <c r="C72" t="n">
-        <v>411.3728188103336</v>
+        <v>411.372787771436</v>
       </c>
       <c r="D72" t="n">
-        <v>393.5360342385911</v>
+        <v>393.5360045455143</v>
       </c>
       <c r="E72" t="n">
-        <v>393.6095493858254</v>
+        <v>393.6095196872019</v>
       </c>
       <c r="F72" t="n">
         <v>3008540</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>404.4635314941406</v>
+        <v>404.4635009765625</v>
       </c>
       <c r="C74" t="n">
-        <v>407.3791338590698</v>
+        <v>407.3791031215037</v>
       </c>
       <c r="D74" t="n">
-        <v>400.3473412365009</v>
+        <v>400.3473110294976</v>
       </c>
       <c r="E74" t="n">
-        <v>401.4988791530257</v>
+        <v>401.4988488591366</v>
       </c>
       <c r="F74" t="n">
         <v>626930</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>410.6622924804688</v>
+        <v>410.6622619628906</v>
       </c>
       <c r="C78" t="n">
-        <v>412.5978823520672</v>
+        <v>412.5978516906495</v>
       </c>
       <c r="D78" t="n">
-        <v>402.7974575931108</v>
+        <v>402.7974276599927</v>
       </c>
       <c r="E78" t="n">
-        <v>403.2139636819573</v>
+        <v>403.2139337178874</v>
       </c>
       <c r="F78" t="n">
         <v>617456</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>418.8456420898438</v>
+        <v>418.8456115722656</v>
       </c>
       <c r="C79" t="n">
-        <v>421.4182535212233</v>
+        <v>421.4182228162018</v>
       </c>
       <c r="D79" t="n">
-        <v>410.6867767297741</v>
+        <v>410.6867468066603</v>
       </c>
       <c r="E79" t="n">
-        <v>412.0833551662076</v>
+        <v>412.0833251413375</v>
       </c>
       <c r="F79" t="n">
         <v>683214</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>420.2176818847656</v>
+        <v>420.2177124023438</v>
       </c>
       <c r="C80" t="n">
-        <v>427.2495041805095</v>
+        <v>427.2495352087615</v>
       </c>
       <c r="D80" t="n">
-        <v>416.6650281187672</v>
+        <v>416.6650583783401</v>
       </c>
       <c r="E80" t="n">
-        <v>417.4980701559469</v>
+        <v>417.498100476018</v>
       </c>
       <c r="F80" t="n">
         <v>651650</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>416.7385559082031</v>
+        <v>416.738525390625</v>
       </c>
       <c r="C81" t="n">
-        <v>420.6832207794687</v>
+        <v>420.6831899730245</v>
       </c>
       <c r="D81" t="n">
-        <v>414.6559657063245</v>
+        <v>414.6559353412536</v>
       </c>
       <c r="E81" t="n">
-        <v>418.9681464955687</v>
+        <v>418.9681158147187</v>
       </c>
       <c r="F81" t="n">
         <v>235520</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>425.6569213867188</v>
+        <v>425.6569519042969</v>
       </c>
       <c r="C82" t="n">
-        <v>426.9064694475284</v>
+        <v>426.9065000546931</v>
       </c>
       <c r="D82" t="n">
-        <v>416.7630247677727</v>
+        <v>416.7630546477007</v>
       </c>
       <c r="E82" t="n">
-        <v>418.7720996962493</v>
+        <v>418.7721297202185</v>
       </c>
       <c r="F82" t="n">
         <v>673598</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>421.687744140625</v>
+        <v>421.6877746582031</v>
       </c>
       <c r="C83" t="n">
-        <v>428.6705463476358</v>
+        <v>428.67057737056</v>
       </c>
       <c r="D83" t="n">
-        <v>419.4581536281608</v>
+        <v>419.4581839843833</v>
       </c>
       <c r="E83" t="n">
-        <v>426.0489448508682</v>
+        <v>426.0489756840669</v>
       </c>
       <c r="F83" t="n">
         <v>360538</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>414.8274841308594</v>
+        <v>414.8274536132812</v>
       </c>
       <c r="C85" t="n">
-        <v>427.7885522039672</v>
+        <v>427.7885207328833</v>
       </c>
       <c r="D85" t="n">
-        <v>410.6378084157211</v>
+        <v>410.6377782063645</v>
       </c>
       <c r="E85" t="n">
-        <v>427.7885522039672</v>
+        <v>427.7885207328833</v>
       </c>
       <c r="F85" t="n">
         <v>331042</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>417.3755798339844</v>
+        <v>417.3755493164062</v>
       </c>
       <c r="C86" t="n">
-        <v>426.2939721414634</v>
+        <v>426.2939409717922</v>
       </c>
       <c r="D86" t="n">
-        <v>415.0479790072025</v>
+        <v>415.0479486598134</v>
       </c>
       <c r="E86" t="n">
-        <v>417.8656010606753</v>
+        <v>417.8655705072679</v>
       </c>
       <c r="F86" t="n">
         <v>445332</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>422.3247680664062</v>
+        <v>422.3247985839844</v>
       </c>
       <c r="C87" t="n">
-        <v>425.803936604095</v>
+        <v>425.8039673730811</v>
       </c>
       <c r="D87" t="n">
-        <v>418.5271036871859</v>
+        <v>418.5271339303413</v>
       </c>
       <c r="E87" t="n">
-        <v>418.9681347397941</v>
+        <v>418.9681650148189</v>
       </c>
       <c r="F87" t="n">
         <v>496646</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>433.7178039550781</v>
+        <v>433.7177734375</v>
       </c>
       <c r="C89" t="n">
-        <v>438.0790051193403</v>
+        <v>438.078974294896</v>
       </c>
       <c r="D89" t="n">
-        <v>393.4625755125485</v>
+        <v>393.462547827439</v>
       </c>
       <c r="E89" t="n">
-        <v>421.442777410788</v>
+        <v>421.4427477569145</v>
       </c>
       <c r="F89" t="n">
         <v>2769046</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>452.6326293945312</v>
+        <v>452.6325988769531</v>
       </c>
       <c r="C92" t="n">
-        <v>465.030160895066</v>
+        <v>465.0301295416165</v>
       </c>
       <c r="D92" t="n">
-        <v>449.8395023199901</v>
+        <v>449.8394719907313</v>
       </c>
       <c r="E92" t="n">
-        <v>458.2433786241268</v>
+        <v>458.2433477282585</v>
       </c>
       <c r="F92" t="n">
         <v>1369096</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>452.4856262207031</v>
+        <v>452.485595703125</v>
       </c>
       <c r="C93" t="n">
-        <v>457.3368185648975</v>
+        <v>457.3367877201341</v>
       </c>
       <c r="D93" t="n">
-        <v>446.9238671863319</v>
+        <v>446.9238370438628</v>
       </c>
       <c r="E93" t="n">
-        <v>452.6326266114018</v>
+        <v>452.6325960839093</v>
       </c>
       <c r="F93" t="n">
         <v>525544</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>453.6861572265625</v>
+        <v>453.6861267089844</v>
       </c>
       <c r="C95" t="n">
-        <v>460.9384955714959</v>
+        <v>460.9384645660832</v>
       </c>
       <c r="D95" t="n">
-        <v>451.0890506125909</v>
+        <v>451.0890202697093</v>
       </c>
       <c r="E95" t="n">
-        <v>455.7197573545108</v>
+        <v>455.7197267001408</v>
       </c>
       <c r="F95" t="n">
         <v>285456</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>451.2360229492188</v>
+        <v>451.2360534667969</v>
       </c>
       <c r="C96" t="n">
-        <v>465.4956582217545</v>
+        <v>465.4956897037272</v>
       </c>
       <c r="D96" t="n">
-        <v>448.1733903617138</v>
+        <v>448.1734206721628</v>
       </c>
       <c r="E96" t="n">
-        <v>453.6861290192227</v>
+        <v>453.6861597025041</v>
       </c>
       <c r="F96" t="n">
         <v>602352</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>478.1871948242188</v>
+        <v>478.1871643066406</v>
       </c>
       <c r="C98" t="n">
-        <v>482.0828694988181</v>
+        <v>482.0828387326208</v>
       </c>
       <c r="D98" t="n">
-        <v>453.6371437041001</v>
+        <v>453.6371147532894</v>
       </c>
       <c r="E98" t="n">
-        <v>457.5328183786995</v>
+        <v>457.5327891792695</v>
       </c>
       <c r="F98" t="n">
         <v>2544528</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>476.1781005859375</v>
+        <v>476.1781311035156</v>
       </c>
       <c r="C101" t="n">
-        <v>481.5928288583879</v>
+        <v>481.5928597229882</v>
       </c>
       <c r="D101" t="n">
-        <v>473.3604786889793</v>
+        <v>473.36050902598</v>
       </c>
       <c r="E101" t="n">
-        <v>477.7706694842182</v>
+        <v>477.7707001038618</v>
       </c>
       <c r="F101" t="n">
         <v>608372</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>482.4749145507812</v>
+        <v>482.4748840332031</v>
       </c>
       <c r="C103" t="n">
-        <v>490.021253823066</v>
+        <v>490.0212228281656</v>
       </c>
       <c r="D103" t="n">
-        <v>480.2453238275911</v>
+        <v>480.2452934510393</v>
       </c>
       <c r="E103" t="n">
-        <v>487.2281266945698</v>
+        <v>487.2280958763407</v>
       </c>
       <c r="F103" t="n">
         <v>451242</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>474.3895263671875</v>
+        <v>474.3895568847656</v>
       </c>
       <c r="C105" t="n">
-        <v>480.2207907901912</v>
+        <v>480.2208216828959</v>
       </c>
       <c r="D105" t="n">
-        <v>471.8904301336267</v>
+        <v>471.8904604904375</v>
       </c>
       <c r="E105" t="n">
-        <v>478.0892104679495</v>
+        <v>478.0892412235291</v>
       </c>
       <c r="F105" t="n">
         <v>343182</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>498.0330810546875</v>
+        <v>498.0330505371094</v>
       </c>
       <c r="C109" t="n">
-        <v>528.2429028125235</v>
+        <v>528.2428704438022</v>
       </c>
       <c r="D109" t="n">
-        <v>494.3579217122998</v>
+        <v>494.3578914199215</v>
       </c>
       <c r="E109" t="n">
-        <v>510.1611068845668</v>
+        <v>510.1610756238293</v>
       </c>
       <c r="F109" t="n">
         <v>1645594</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>495.4849853515625</v>
+        <v>495.4849548339844</v>
       </c>
       <c r="C111" t="n">
-        <v>517.7319614566144</v>
+        <v>517.7319295688155</v>
       </c>
       <c r="D111" t="n">
-        <v>493.9414064928632</v>
+        <v>493.9413760703561</v>
       </c>
       <c r="E111" t="n">
-        <v>512.0721922470655</v>
+        <v>512.0721607078593</v>
       </c>
       <c r="F111" t="n">
         <v>496490</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>497.6410522460938</v>
+        <v>497.6410217285156</v>
       </c>
       <c r="C114" t="n">
-        <v>504.6728748148779</v>
+        <v>504.672843866077</v>
       </c>
       <c r="D114" t="n">
-        <v>493.5738820343161</v>
+        <v>493.5738517661551</v>
       </c>
       <c r="E114" t="n">
-        <v>502.2717588336302</v>
+        <v>502.2717280320764</v>
       </c>
       <c r="F114" t="n">
         <v>417942</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>506.5593872070312</v>
+        <v>506.5594482421875</v>
       </c>
       <c r="C115" t="n">
-        <v>512.1946306922848</v>
+        <v>512.1946924064295</v>
       </c>
       <c r="D115" t="n">
-        <v>495.4114055296818</v>
+        <v>495.4114652216218</v>
       </c>
       <c r="E115" t="n">
-        <v>500.140121808976</v>
+        <v>500.1401820706773</v>
       </c>
       <c r="F115" t="n">
         <v>695028</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>497.2980041503906</v>
+        <v>497.2980346679688</v>
       </c>
       <c r="C116" t="n">
-        <v>513.6647242363795</v>
+        <v>513.6647557583304</v>
       </c>
       <c r="D116" t="n">
-        <v>495.827940546566</v>
+        <v>495.827970973931</v>
       </c>
       <c r="E116" t="n">
-        <v>506.583941804774</v>
+        <v>506.5839728922003</v>
       </c>
       <c r="F116" t="n">
         <v>395264</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>478.2362365722656</v>
+        <v>478.2362060546875</v>
       </c>
       <c r="C118" t="n">
-        <v>493.7944109882196</v>
+        <v>493.7943794778313</v>
       </c>
       <c r="D118" t="n">
-        <v>473.4585294681538</v>
+        <v>473.4584992554543</v>
       </c>
       <c r="E118" t="n">
-        <v>489.5312202059229</v>
+        <v>489.5311889675806</v>
       </c>
       <c r="F118" t="n">
         <v>531190</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>468.5582885742188</v>
+        <v>468.5583190917969</v>
       </c>
       <c r="C129" t="n">
-        <v>486.3950427336526</v>
+        <v>486.395074412953</v>
       </c>
       <c r="D129" t="n">
-        <v>465.6426563831174</v>
+        <v>465.6426867107981</v>
       </c>
       <c r="E129" t="n">
-        <v>483.9939567416149</v>
+        <v>483.9939882645305</v>
       </c>
       <c r="F129" t="n">
         <v>953550</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>516.3109130859375</v>
+        <v>516.3108520507812</v>
       </c>
       <c r="C132" t="n">
-        <v>526.772855034136</v>
+        <v>526.7727927622321</v>
       </c>
       <c r="D132" t="n">
-        <v>481.200877807927</v>
+        <v>481.200820923267</v>
       </c>
       <c r="E132" t="n">
-        <v>481.200877807927</v>
+        <v>481.200820923267</v>
       </c>
       <c r="F132" t="n">
         <v>4734542</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>512.5621948242188</v>
+        <v>512.5621337890625</v>
       </c>
       <c r="C134" t="n">
-        <v>536.426204251072</v>
+        <v>536.4261403742245</v>
       </c>
       <c r="D134" t="n">
-        <v>507.784487941297</v>
+        <v>507.7844274750631</v>
       </c>
       <c r="E134" t="n">
-        <v>526.2827889495325</v>
+        <v>526.282726280548</v>
       </c>
       <c r="F134" t="n">
         <v>1878918</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>517.3565063476562</v>
+        <v>517.3565673828125</v>
       </c>
       <c r="C137" t="n">
-        <v>526.2014863805093</v>
+        <v>526.2015484591524</v>
       </c>
       <c r="D137" t="n">
-        <v>496.3558840747094</v>
+        <v>496.3559426323163</v>
       </c>
       <c r="E137" t="n">
-        <v>518.3447709252067</v>
+        <v>518.3448320769535</v>
       </c>
       <c r="F137" t="n">
         <v>838798</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>520.3460693359375</v>
+        <v>520.3461303710938</v>
       </c>
       <c r="C139" t="n">
-        <v>526.1026626711392</v>
+        <v>526.102724381528</v>
       </c>
       <c r="D139" t="n">
-        <v>514.6388168506057</v>
+        <v>514.638877216317</v>
       </c>
       <c r="E139" t="n">
-        <v>518.8142108722468</v>
+        <v>518.8142717277203</v>
       </c>
       <c r="F139" t="n">
         <v>620330</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>519.1107177734375</v>
+        <v>519.1107788085938</v>
       </c>
       <c r="C141" t="n">
-        <v>529.413364281377</v>
+        <v>529.4134265278809</v>
       </c>
       <c r="D141" t="n">
-        <v>516.5411935929974</v>
+        <v>516.5412543260383</v>
       </c>
       <c r="E141" t="n">
-        <v>524.7685085449796</v>
+        <v>524.7685702453583</v>
       </c>
       <c r="F141" t="n">
         <v>544092</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>524.4721069335938</v>
+        <v>524.4720458984375</v>
       </c>
       <c r="C142" t="n">
-        <v>526.7451037603383</v>
+        <v>526.7450424606633</v>
       </c>
       <c r="D142" t="n">
-        <v>515.3800593077231</v>
+        <v>515.379999330649</v>
       </c>
       <c r="E142" t="n">
-        <v>523.7803095553082</v>
+        <v>523.7802486006595</v>
       </c>
       <c r="F142" t="n">
         <v>413450</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>517.3318481445312</v>
+        <v>517.331787109375</v>
       </c>
       <c r="C144" t="n">
-        <v>527.0415610442104</v>
+        <v>527.0414988634958</v>
       </c>
       <c r="D144" t="n">
-        <v>514.8859170996852</v>
+        <v>514.8858563531015</v>
       </c>
       <c r="E144" t="n">
-        <v>525.2379658735091</v>
+        <v>525.2379039055838</v>
       </c>
       <c r="F144" t="n">
         <v>530064</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>517.3565063476562</v>
+        <v>517.3565673828125</v>
       </c>
       <c r="C145" t="n">
-        <v>526.1767556385173</v>
+        <v>526.1768177142429</v>
       </c>
       <c r="D145" t="n">
-        <v>506.5103267365933</v>
+        <v>506.5103864921711</v>
       </c>
       <c r="E145" t="n">
-        <v>519.6542335542376</v>
+        <v>519.6542948604683</v>
       </c>
       <c r="F145" t="n">
         <v>872780</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>514.1199340820312</v>
+        <v>514.1199951171875</v>
       </c>
       <c r="C147" t="n">
-        <v>524.0025802103331</v>
+        <v>524.0026424187348</v>
       </c>
       <c r="D147" t="n">
-        <v>511.9458001889129</v>
+        <v>511.9458609659608</v>
       </c>
       <c r="E147" t="n">
-        <v>514.3917309781136</v>
+        <v>514.3917920455369</v>
       </c>
       <c r="F147" t="n">
         <v>650740</v>
@@ -3421,16 +3421,16 @@
         <v>45147</v>
       </c>
       <c r="B150" t="n">
-        <v>510.8586730957031</v>
+        <v>510.8587036132812</v>
       </c>
       <c r="C150" t="n">
-        <v>513.724664601431</v>
+        <v>513.7246952902171</v>
       </c>
       <c r="D150" t="n">
-        <v>500.0618942606702</v>
+        <v>500.0619241332724</v>
       </c>
       <c r="E150" t="n">
-        <v>505.3491159729828</v>
+        <v>505.3491461614321</v>
       </c>
       <c r="F150" t="n">
         <v>338278</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>509.4010314941406</v>
+        <v>509.4010620117188</v>
       </c>
       <c r="C153" t="n">
-        <v>515.7012187070004</v>
+        <v>515.7012496020149</v>
       </c>
       <c r="D153" t="n">
-        <v>506.732704846093</v>
+        <v>506.732735203815</v>
       </c>
       <c r="E153" t="n">
-        <v>513.0576228030289</v>
+        <v>513.057653539669</v>
       </c>
       <c r="F153" t="n">
         <v>238850</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>496.0594787597656</v>
+        <v>496.0594482421875</v>
       </c>
       <c r="C156" t="n">
-        <v>507.9680563437346</v>
+        <v>507.9680250935409</v>
       </c>
       <c r="D156" t="n">
-        <v>487.2144976215198</v>
+        <v>487.2144676480849</v>
       </c>
       <c r="E156" t="n">
-        <v>502.0631687230249</v>
+        <v>502.0631378360998</v>
       </c>
       <c r="F156" t="n">
         <v>556884</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>509.2775268554688</v>
+        <v>509.2774963378906</v>
       </c>
       <c r="C160" t="n">
-        <v>511.4517212945281</v>
+        <v>511.4516906466652</v>
       </c>
       <c r="D160" t="n">
-        <v>505.7444684318588</v>
+        <v>505.7444381259931</v>
       </c>
       <c r="E160" t="n">
-        <v>508.7092625799693</v>
+        <v>508.7092320964434</v>
       </c>
       <c r="F160" t="n">
         <v>513214</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>503.1749572753906</v>
+        <v>503.1749267578125</v>
       </c>
       <c r="C161" t="n">
-        <v>508.0421789344245</v>
+        <v>508.0421481216492</v>
       </c>
       <c r="D161" t="n">
-        <v>496.1335714096058</v>
+        <v>496.133541319088</v>
       </c>
       <c r="E161" t="n">
-        <v>504.5091206292178</v>
+        <v>504.5090900307226</v>
       </c>
       <c r="F161" t="n">
         <v>434390</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>527.3379516601562</v>
+        <v>527.3380126953125</v>
       </c>
       <c r="C167" t="n">
-        <v>534.1570013366883</v>
+        <v>534.157063161095</v>
       </c>
       <c r="D167" t="n">
-        <v>516.4176401998432</v>
+        <v>516.4176999710606</v>
       </c>
       <c r="E167" t="n">
-        <v>519.3330327519514</v>
+        <v>519.3330928606022</v>
       </c>
       <c r="F167" t="n">
         <v>1196622</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>538.0853881835938</v>
+        <v>538.0853271484375</v>
       </c>
       <c r="C168" t="n">
-        <v>543.5208439303431</v>
+        <v>543.5207822786417</v>
       </c>
       <c r="D168" t="n">
-        <v>528.9686706268291</v>
+        <v>528.9686106257843</v>
       </c>
       <c r="E168" t="n">
-        <v>528.9686706268291</v>
+        <v>528.9686106257843</v>
       </c>
       <c r="F168" t="n">
         <v>857476</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>544.3856201171875</v>
+        <v>544.3855590820312</v>
       </c>
       <c r="C169" t="n">
-        <v>548.4375418334463</v>
+        <v>548.4374803439987</v>
       </c>
       <c r="D169" t="n">
-        <v>538.6042953860145</v>
+        <v>538.604234999046</v>
       </c>
       <c r="E169" t="n">
-        <v>542.5573544347193</v>
+        <v>542.5572936045436</v>
       </c>
       <c r="F169" t="n">
         <v>767224</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>544.0397338867188</v>
+        <v>544.0396728515625</v>
       </c>
       <c r="C170" t="n">
-        <v>547.9927928068765</v>
+        <v>547.9927313282315</v>
       </c>
       <c r="D170" t="n">
-        <v>538.6784097900331</v>
+        <v>538.6783493563573</v>
       </c>
       <c r="E170" t="n">
-        <v>547.8445289698137</v>
+        <v>547.8444675078022</v>
       </c>
       <c r="F170" t="n">
         <v>357428</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>539.5677490234375</v>
+        <v>539.5678100585938</v>
       </c>
       <c r="C173" t="n">
-        <v>562.3225659103699</v>
+        <v>562.3226295195195</v>
       </c>
       <c r="D173" t="n">
-        <v>529.7345643597264</v>
+        <v>529.7346242825664</v>
       </c>
       <c r="E173" t="n">
-        <v>562.3225659103699</v>
+        <v>562.3226295195195</v>
       </c>
       <c r="F173" t="n">
         <v>892282</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>533.267578125</v>
+        <v>533.2676391601562</v>
       </c>
       <c r="C179" t="n">
-        <v>536.9489001176494</v>
+        <v>536.9489615741514</v>
       </c>
       <c r="D179" t="n">
-        <v>527.7333202425209</v>
+        <v>527.7333806442534</v>
       </c>
       <c r="E179" t="n">
-        <v>532.1557803997699</v>
+        <v>532.1558413076754</v>
       </c>
       <c r="F179" t="n">
         <v>257338</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>522.6931762695312</v>
+        <v>522.6932373046875</v>
       </c>
       <c r="C185" t="n">
-        <v>536.059418926225</v>
+        <v>536.0594815221643</v>
       </c>
       <c r="D185" t="n">
-        <v>520.123652092628</v>
+        <v>520.1237128277396</v>
       </c>
       <c r="E185" t="n">
-        <v>531.6369589247652</v>
+        <v>531.6370210042917</v>
       </c>
       <c r="F185" t="n">
         <v>439674</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>514.4905395507812</v>
+        <v>514.4906005859375</v>
       </c>
       <c r="C186" t="n">
-        <v>533.6134962322699</v>
+        <v>533.6135595360249</v>
       </c>
       <c r="D186" t="n">
-        <v>511.6987402407894</v>
+        <v>511.6988009447483</v>
       </c>
       <c r="E186" t="n">
-        <v>520.8401880203219</v>
+        <v>520.8402498087511</v>
       </c>
       <c r="F186" t="n">
         <v>510208</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>526.3744506835938</v>
+        <v>526.37451171875</v>
       </c>
       <c r="C191" t="n">
-        <v>528.2027161289369</v>
+        <v>528.2027773760876</v>
       </c>
       <c r="D191" t="n">
-        <v>512.4152127283611</v>
+        <v>512.4152721448897</v>
       </c>
       <c r="E191" t="n">
-        <v>517.4553382342003</v>
+        <v>517.4553982351509</v>
       </c>
       <c r="F191" t="n">
         <v>269588</v>
@@ -4261,16 +4261,16 @@
         <v>45210</v>
       </c>
       <c r="B192" t="n">
-        <v>534.9970092773438</v>
+        <v>534.9970703125</v>
       </c>
       <c r="C192" t="n">
-        <v>536.1335376783165</v>
+        <v>536.1335988431337</v>
       </c>
       <c r="D192" t="n">
-        <v>525.9050233450947</v>
+        <v>525.9050833429914</v>
       </c>
       <c r="E192" t="n">
-        <v>530.6980824576148</v>
+        <v>530.6981430023277</v>
       </c>
       <c r="F192" t="n">
         <v>313936</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>538.8265380859375</v>
+        <v>538.8265991210938</v>
       </c>
       <c r="C194" t="n">
-        <v>541.0501334181038</v>
+        <v>541.0501947051361</v>
       </c>
       <c r="D194" t="n">
-        <v>522.9896341892835</v>
+        <v>522.9896934305269</v>
       </c>
       <c r="E194" t="n">
-        <v>530.2039536476462</v>
+        <v>530.204013706086</v>
       </c>
       <c r="F194" t="n">
         <v>486024</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>541.741943359375</v>
+        <v>541.7420043945312</v>
       </c>
       <c r="C196" t="n">
-        <v>545.8679360639505</v>
+        <v>545.8679975639602</v>
       </c>
       <c r="D196" t="n">
-        <v>533.7122933610841</v>
+        <v>533.7123534915828</v>
       </c>
       <c r="E196" t="n">
-        <v>537.4676868349693</v>
+        <v>537.467747388568</v>
       </c>
       <c r="F196" t="n">
         <v>216308</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>541.8901977539062</v>
+        <v>541.8902587890625</v>
       </c>
       <c r="C197" t="n">
-        <v>549.8457157039088</v>
+        <v>549.8457776351253</v>
       </c>
       <c r="D197" t="n">
-        <v>529.5368902790937</v>
+        <v>529.5369499228499</v>
       </c>
       <c r="E197" t="n">
-        <v>541.7419339366548</v>
+        <v>541.7419949551115</v>
       </c>
       <c r="F197" t="n">
         <v>969036</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>545.9420776367188</v>
+        <v>545.942138671875</v>
       </c>
       <c r="C198" t="n">
-        <v>548.4868711296109</v>
+        <v>548.4869324492696</v>
       </c>
       <c r="D198" t="n">
-        <v>530.7228384849947</v>
+        <v>530.7228978186725</v>
       </c>
       <c r="E198" t="n">
-        <v>536.1088324779151</v>
+        <v>536.1088924137356</v>
       </c>
       <c r="F198" t="n">
         <v>358684</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>549.2775268554688</v>
+        <v>549.2774658203125</v>
       </c>
       <c r="C199" t="n">
-        <v>570.7228836377569</v>
+        <v>570.7228202196145</v>
       </c>
       <c r="D199" t="n">
-        <v>546.2139303089529</v>
+        <v>546.2138696142204</v>
       </c>
       <c r="E199" t="n">
-        <v>555.8989126341788</v>
+        <v>555.8988508632609</v>
       </c>
       <c r="F199" t="n">
         <v>1862824</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>518.320068359375</v>
+        <v>518.3201293945312</v>
       </c>
       <c r="C201" t="n">
-        <v>542.5572825689009</v>
+        <v>542.5573464581279</v>
       </c>
       <c r="D201" t="n">
-        <v>514.3917405776191</v>
+        <v>514.3918011501924</v>
       </c>
       <c r="E201" t="n">
-        <v>538.5300921326859</v>
+        <v>538.5301555476883</v>
       </c>
       <c r="F201" t="n">
         <v>618872</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>571.365234375</v>
+        <v>571.3652954101562</v>
       </c>
       <c r="C204" t="n">
-        <v>588.0174696830057</v>
+        <v>588.0175324970097</v>
       </c>
       <c r="D204" t="n">
-        <v>568.2521765844173</v>
+        <v>568.2522372870262</v>
       </c>
       <c r="E204" t="n">
-        <v>588.0174696830057</v>
+        <v>588.0175324970097</v>
       </c>
       <c r="F204" t="n">
         <v>945810</v>
